--- a/Indice_Experimentos.xlsx
+++ b/Indice_Experimentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB84E7-B916-4A00-B2DF-80FDDD5574A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C94EEB-1791-43F4-8416-E891E4122015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C605E24C-3C93-43B7-80BE-30E8D3278DB9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Frecuencia recoleccion</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>Experimento14</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>ColdStart=True</t>
-  </si>
-  <si>
-    <t>3.2</t>
   </si>
   <si>
     <t>ColdStart=True
@@ -158,9 +152,6 @@
     <t>Experimento12</t>
   </si>
   <si>
-    <t>Experimento12 with a sleep(60) between esc</t>
-  </si>
-  <si>
     <t>Experimento21 with a final sleep(1200)</t>
   </si>
   <si>
@@ -192,6 +183,39 @@
   </si>
   <si>
     <t>Experimento27</t>
+  </si>
+  <si>
+    <t>Experimento28</t>
+  </si>
+  <si>
+    <t>Experimento29</t>
+  </si>
+  <si>
+    <t>Average of 5 last times</t>
+  </si>
+  <si>
+    <t>Experimento30</t>
+  </si>
+  <si>
+    <t>Elasticity with average of 5 last times</t>
+  </si>
+  <si>
+    <t>Experimento29 with sleep(600) between ESC</t>
+  </si>
+  <si>
+    <t>Experimento29 with sleep(300) between ESC</t>
+  </si>
+  <si>
+    <t>Experimento32</t>
+  </si>
+  <si>
+    <t>Experimento33</t>
+  </si>
+  <si>
+    <t>Experimento29 with sleep(1200) between ESC</t>
+  </si>
+  <si>
+    <t>Experimento12 with a sleep(60) between ESC</t>
   </si>
 </sst>
 </file>
@@ -552,15 +576,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06659444-A726-49AD-A5E7-7ED3AC17F9D5}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -1281,7 +1305,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1316,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1386,7 +1410,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1491,7 +1515,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1526,7 +1550,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1561,7 +1585,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -1596,7 +1620,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -1631,7 +1655,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -1666,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -1701,7 +1725,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -1736,7 +1760,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1771,7 +1795,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1806,7 +1830,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1841,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -1876,7 +1900,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1911,7 +1935,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1925,8 +1949,8 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
-        <v>24</v>
+      <c r="G39">
+        <v>2.5</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -1946,7 +1970,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1960,8 +1984,8 @@
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40" t="s">
-        <v>24</v>
+      <c r="G40">
+        <v>2.5</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -1981,7 +2005,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1995,8 +2019,8 @@
       <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41" t="s">
-        <v>24</v>
+      <c r="G41">
+        <v>2.5</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -2016,7 +2040,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -2030,8 +2054,8 @@
       <c r="F42">
         <v>8</v>
       </c>
-      <c r="G42" t="s">
-        <v>24</v>
+      <c r="G42">
+        <v>2.5</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -2051,7 +2075,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2065,8 +2089,8 @@
       <c r="F43">
         <v>16</v>
       </c>
-      <c r="G43" t="s">
-        <v>24</v>
+      <c r="G43">
+        <v>2.5</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -2086,7 +2110,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -2100,8 +2124,8 @@
       <c r="F44">
         <v>16</v>
       </c>
-      <c r="G44" t="s">
-        <v>24</v>
+      <c r="G44">
+        <v>2.5</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -2121,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2135,8 +2159,8 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
-        <v>24</v>
+      <c r="G45">
+        <v>2.5</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -2156,7 +2180,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -2170,8 +2194,8 @@
       <c r="F46">
         <v>8</v>
       </c>
-      <c r="G46" t="s">
-        <v>24</v>
+      <c r="G46">
+        <v>2.5</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -2191,7 +2215,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2205,8 +2229,8 @@
       <c r="F47">
         <v>2</v>
       </c>
-      <c r="G47" t="s">
-        <v>24</v>
+      <c r="G47">
+        <v>2.5</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -2215,7 +2239,7 @@
         <v>17</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K47">
         <v>15</v>
@@ -2229,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -2243,8 +2267,8 @@
       <c r="F48">
         <v>4</v>
       </c>
-      <c r="G48" t="s">
-        <v>24</v>
+      <c r="G48">
+        <v>2.5</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -2253,7 +2277,7 @@
         <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K48">
         <v>15</v>
@@ -2267,7 +2291,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -2281,8 +2305,8 @@
       <c r="F49">
         <v>8</v>
       </c>
-      <c r="G49" t="s">
-        <v>24</v>
+      <c r="G49">
+        <v>2.5</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -2291,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K49">
         <v>15</v>
@@ -2305,7 +2329,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>16</v>
@@ -2319,8 +2343,8 @@
       <c r="F50">
         <v>16</v>
       </c>
-      <c r="G50" t="s">
-        <v>24</v>
+      <c r="G50">
+        <v>2.5</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -2329,7 +2353,7 @@
         <v>17</v>
       </c>
       <c r="J50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K50">
         <v>15</v>
@@ -2343,7 +2367,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2360,14 +2384,14 @@
       <c r="G51">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
-        <v>28</v>
+      <c r="H51">
+        <v>3.2</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K51">
         <v>15</v>
@@ -2381,7 +2405,7 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2398,14 +2422,14 @@
       <c r="G52">
         <v>3</v>
       </c>
-      <c r="H52" t="s">
-        <v>28</v>
+      <c r="H52">
+        <v>3.2</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K52">
         <v>15</v>
@@ -2419,7 +2443,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -2436,14 +2460,14 @@
       <c r="G53">
         <v>3</v>
       </c>
-      <c r="H53" t="s">
-        <v>28</v>
+      <c r="H53">
+        <v>3.2</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K53">
         <v>15</v>
@@ -2457,7 +2481,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2474,14 +2498,14 @@
       <c r="G54">
         <v>3</v>
       </c>
-      <c r="H54" t="s">
-        <v>28</v>
+      <c r="H54">
+        <v>3.2</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K54">
         <v>15</v>
@@ -2495,7 +2519,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>16</v>
@@ -2512,14 +2536,14 @@
       <c r="G55">
         <v>3</v>
       </c>
-      <c r="H55" t="s">
-        <v>28</v>
+      <c r="H55">
+        <v>3.2</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K55">
         <v>15</v>
@@ -2533,7 +2557,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -2550,14 +2574,14 @@
       <c r="G56">
         <v>3</v>
       </c>
-      <c r="H56" t="s">
-        <v>28</v>
+      <c r="H56">
+        <v>3.2</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K56">
         <v>15</v>
@@ -2571,7 +2595,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -2588,14 +2612,14 @@
       <c r="G57">
         <v>3</v>
       </c>
-      <c r="H57" t="s">
-        <v>28</v>
+      <c r="H57">
+        <v>3.2</v>
       </c>
       <c r="I57" t="s">
         <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K57">
         <v>15</v>
@@ -2609,7 +2633,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -2626,14 +2650,14 @@
       <c r="G58">
         <v>3</v>
       </c>
-      <c r="H58" t="s">
-        <v>28</v>
+      <c r="H58">
+        <v>3.2</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K58">
         <v>15</v>
@@ -2647,7 +2671,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -2664,14 +2688,14 @@
       <c r="G59">
         <v>3</v>
       </c>
-      <c r="H59" t="s">
-        <v>28</v>
+      <c r="H59">
+        <v>3.2</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K59">
         <v>15</v>
@@ -2685,7 +2709,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2702,14 +2726,14 @@
       <c r="G60">
         <v>3</v>
       </c>
-      <c r="H60" t="s">
-        <v>28</v>
+      <c r="H60">
+        <v>3.2</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K60">
         <v>15</v>
@@ -2723,7 +2747,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2740,14 +2764,14 @@
       <c r="G61">
         <v>3</v>
       </c>
-      <c r="H61" t="s">
-        <v>28</v>
+      <c r="H61">
+        <v>3.2</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K61">
         <v>15</v>
@@ -2761,7 +2785,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -2778,14 +2802,14 @@
       <c r="G62">
         <v>3</v>
       </c>
-      <c r="H62" t="s">
-        <v>28</v>
+      <c r="H62">
+        <v>3.2</v>
       </c>
       <c r="I62" t="s">
         <v>18</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K62">
         <v>15</v>
@@ -2799,7 +2823,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -2816,14 +2840,14 @@
       <c r="G63">
         <v>3</v>
       </c>
-      <c r="H63" t="s">
-        <v>28</v>
+      <c r="H63">
+        <v>3.2</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K63">
         <v>15</v>
@@ -2837,7 +2861,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -2854,14 +2878,14 @@
       <c r="G64">
         <v>3</v>
       </c>
-      <c r="H64" t="s">
-        <v>28</v>
+      <c r="H64">
+        <v>3.2</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K64">
         <v>15</v>
@@ -2875,7 +2899,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -2892,14 +2916,14 @@
       <c r="G65">
         <v>3</v>
       </c>
-      <c r="H65" t="s">
-        <v>28</v>
+      <c r="H65">
+        <v>3.2</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K65">
         <v>15</v>
@@ -2913,7 +2937,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -2930,14 +2954,14 @@
       <c r="G66">
         <v>3</v>
       </c>
-      <c r="H66" t="s">
-        <v>28</v>
+      <c r="H66">
+        <v>3.2</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K66">
         <v>15</v>
@@ -2951,7 +2975,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>16</v>
@@ -2968,14 +2992,14 @@
       <c r="G67">
         <v>3</v>
       </c>
-      <c r="H67" t="s">
-        <v>28</v>
+      <c r="H67">
+        <v>3.2</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K67">
         <v>15</v>
@@ -2989,7 +3013,7 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C68">
         <v>16</v>
@@ -3006,8 +3030,8 @@
       <c r="G68">
         <v>3</v>
       </c>
-      <c r="H68" t="s">
-        <v>28</v>
+      <c r="H68">
+        <v>3.2</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -3025,7 +3049,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69">
         <v>16</v>
@@ -3042,14 +3066,14 @@
       <c r="G69">
         <v>3</v>
       </c>
-      <c r="H69" t="s">
-        <v>28</v>
+      <c r="H69">
+        <v>3.2</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K69">
         <v>15</v>
@@ -3063,7 +3087,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C70">
         <v>16</v>
@@ -3080,8 +3104,8 @@
       <c r="G70">
         <v>3</v>
       </c>
-      <c r="H70" t="s">
-        <v>28</v>
+      <c r="H70">
+        <v>3.2</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -3099,7 +3123,7 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -3116,8 +3140,8 @@
       <c r="G71">
         <v>3</v>
       </c>
-      <c r="H71" t="s">
-        <v>28</v>
+      <c r="H71">
+        <v>3.2</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -3131,16 +3155,832 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J72" s="1"/>
+      <c r="A72">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>700</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>3.2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>700</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>3.2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73">
+        <v>15</v>
+      </c>
+      <c r="L73">
+        <v>15</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J74" s="1"/>
+      <c r="A74">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>700</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>3.2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74">
+        <v>15</v>
+      </c>
+      <c r="L74">
+        <v>15</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J75" s="1"/>
+      <c r="A75">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>700</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>3.2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1200</v>
+      </c>
+      <c r="E76">
+        <v>300</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>3.2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
       <c r="J76" s="1"/>
+      <c r="K76">
+        <v>15</v>
+      </c>
+      <c r="L76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1200</v>
+      </c>
+      <c r="E77">
+        <v>300</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>3.2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1200</v>
+      </c>
+      <c r="E78">
+        <v>300</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>3.2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78">
+        <v>15</v>
+      </c>
+      <c r="L78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1200</v>
+      </c>
+      <c r="E79">
+        <v>300</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>3.2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79">
+        <v>5</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1200</v>
+      </c>
+      <c r="E80">
+        <v>300</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>3.2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80">
+        <v>15</v>
+      </c>
+      <c r="L80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1200</v>
+      </c>
+      <c r="E81">
+        <v>300</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>3.2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81">
+        <v>15</v>
+      </c>
+      <c r="L81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>1900</v>
+      </c>
+      <c r="E82">
+        <v>300</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>3.2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K82">
+        <v>15</v>
+      </c>
+      <c r="L82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1200</v>
+      </c>
+      <c r="E83">
+        <v>300</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>3.2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1200</v>
+      </c>
+      <c r="E84">
+        <v>300</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>3.2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1200</v>
+      </c>
+      <c r="E85">
+        <v>300</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>3.2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K85">
+        <v>30</v>
+      </c>
+      <c r="L85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>3600</v>
+      </c>
+      <c r="E86">
+        <v>900</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>3.2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K86">
+        <v>30</v>
+      </c>
+      <c r="L86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>95</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>2400</v>
+      </c>
+      <c r="E87">
+        <v>600</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>3.2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K87">
+        <v>30</v>
+      </c>
+      <c r="L87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1800</v>
+      </c>
+      <c r="E88">
+        <v>300</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>3.2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K88">
+        <v>30</v>
+      </c>
+      <c r="L88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>900</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3.2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K89">
+        <v>30</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2400</v>
+      </c>
+      <c r="E90">
+        <v>300</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>3.2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K90">
+        <v>30</v>
+      </c>
+      <c r="L90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2400</v>
+      </c>
+      <c r="E91">
+        <v>300</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>3.2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K91">
+        <v>30</v>
+      </c>
+      <c r="L91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>100</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>1800</v>
+      </c>
+      <c r="E92">
+        <v>300</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>3.2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K92">
+        <v>30</v>
+      </c>
+      <c r="L92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1500</v>
+      </c>
+      <c r="E93">
+        <v>300</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>3.2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K93">
+        <v>30</v>
+      </c>
+      <c r="L93">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
